--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anandmathi/Desktop/School/24-25 spring/cis4914/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeykrintal/Documents/documents_for_desktop/code_projects/eduthemes/EduThemes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF7017E-CC7E-D94F-BB0F-2661C438B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E1133-BFE2-7F47-813F-665C627611F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thematic analysis - benefit" sheetId="1" r:id="rId1"/>
@@ -1939,12 +1939,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1968,6 +1970,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1978,6 +1981,7 @@
       <sz val="11"/>
       <color rgb="FFB7B7B7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2287,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5831,7 +5835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
